--- a/test_house.kg.xlsx
+++ b/test_house.kg.xlsx
@@ -16,32 +16,24 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>1-комн. кв., 40 м2</t>
-  </si>
-  <si>
-    <t>Бишкек, Восток-5 м-н 25б</t>
-  </si>
-  <si>
-    <t>$ 29/сутки</t>
-  </si>
-  <si>
-    <t>2 500 сом/сутки</t>
-  </si>
-  <si>
-    <t>+996 703 33-74-33</t>
+    <t>2-комн. кв., 100 м2</t>
+  </si>
+  <si>
+    <t>Бишкек, Дордой Плаза, Ибраимова, 113</t>
+  </si>
+  <si>
+    <t>$ 900</t>
+  </si>
+  <si>
+    <t>78 087 сом</t>
+  </si>
+  <si>
+    <t>+996 995 88-10-76</t>
   </si>
   <si>
     <t>Описание от арендодателя                                            
-Сдаётся  посуточно однокомнатная квартира в центре города  восток 5  
-С свежим ремонтом,  все условия для уютного и прекрасного отдыха 
-Есть Wi-Fi
-Телевизор 
-Кондиционер 
-Стиральная машина 
-Холодильник 
-Газовая плита
-Звонить по номеру 
-Также Вотц апп есть на этом номере</t>
+Сдается шикарная 2-х комнатная квартира, со всеми удобствами и мебелью, в центре города. Квартира со свежим ремонтом, светлая, большая и уютная. С развитой инфраструктурой и удобной транспортной развязкой, в шаговой доступности: кофейни, рестораны, магазины, супермаркеты, аптеки, больницы, поликлиники, школы, детские сады, детские площадки. Квартира сдается на долгий срок.
+ Доп. описание: санузел раздельный, , пластиковые окна, в доме есть: закрытый двор, ворота, охрана, видеонаблюдение, наземный паркинг, подземный паркинг, гостевой паркинг, лифт пассажирский, ремонт по дизайн-проекту, также имеются: телефон, интернет, кабельное телевидение, кондиционер, счетчики холодной и горячей воды, домофон, железная дверь, телевидение, , , , , , , система водонагрева, , Номер в базе: 8778791. Район: Свердловский район</t>
   </si>
 </sst>
 </file>
